--- a/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.1_捷豹组.xlsx
+++ b/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1.1_捷豹组.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\doc\VersionRecords\Version 5.1.1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.1.1.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27765" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,11 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -91,9 +96,6 @@
     <t>重要</t>
   </si>
   <si>
-    <t>New Features</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
@@ -137,6 +139,10 @@
   </si>
   <si>
     <t>王云飞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +470,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
@@ -812,37 +818,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="4" customWidth="1"/>
-    <col min="2" max="3" width="12.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="18.625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="14.5" style="4" customWidth="1"/>
     <col min="15" max="15" width="10" style="5" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="7.625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="5" customWidth="1"/>
     <col min="18" max="18" width="12" style="6" customWidth="1"/>
     <col min="19" max="19" width="17" style="6" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="22.375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="22.33203125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" customWidth="1"/>
     <col min="23" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -907,7 +913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -915,47 +921,47 @@
         <v>21</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="G2" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="33">
         <v>42697</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="33">
         <v>42697</v>
       </c>
       <c r="K2" s="32"/>
       <c r="L2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="20" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" s="13">
         <v>42697</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R2" s="18">
         <v>5278</v>
@@ -1013,7 +1019,7 @@
       <c r="U4" s="28"/>
       <c r="V4" s="29"/>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1085,7 +1091,7 @@
       <c r="U7" s="25"/>
       <c r="V7" s="26"/>
     </row>
-    <row r="8" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1109,7 +1115,7 @@
       <c r="U8" s="25"/>
       <c r="V8" s="26"/>
     </row>
-    <row r="9" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1133,7 +1139,7 @@
       <c r="U9" s="25"/>
       <c r="V9" s="26"/>
     </row>
-    <row r="10" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1157,7 +1163,7 @@
       <c r="U10" s="25"/>
       <c r="V10" s="26"/>
     </row>
-    <row r="11" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1181,7 +1187,7 @@
       <c r="U11" s="25"/>
       <c r="V11" s="26"/>
     </row>
-    <row r="12" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1205,7 +1211,7 @@
       <c r="U12" s="25"/>
       <c r="V12" s="26"/>
     </row>
-    <row r="13" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1229,7 +1235,7 @@
       <c r="U13" s="25"/>
       <c r="V13" s="26"/>
     </row>
-    <row r="14" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1253,7 +1259,7 @@
       <c r="U14" s="25"/>
       <c r="V14" s="26"/>
     </row>
-    <row r="15" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1277,7 +1283,7 @@
       <c r="U15" s="25"/>
       <c r="V15" s="26"/>
     </row>
-    <row r="16" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1301,7 +1307,7 @@
       <c r="U16" s="25"/>
       <c r="V16" s="26"/>
     </row>
-    <row r="17" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1325,7 +1331,7 @@
       <c r="U17" s="25"/>
       <c r="V17" s="26"/>
     </row>
-    <row r="18" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1349,7 +1355,7 @@
       <c r="U18" s="25"/>
       <c r="V18" s="26"/>
     </row>
-    <row r="19" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1373,7 +1379,7 @@
       <c r="U19" s="25"/>
       <c r="V19" s="26"/>
     </row>
-    <row r="20" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1397,7 +1403,7 @@
       <c r="U20" s="25"/>
       <c r="V20" s="26"/>
     </row>
-    <row r="21" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1421,7 +1427,7 @@
       <c r="U21" s="25"/>
       <c r="V21" s="26"/>
     </row>
-    <row r="22" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1445,7 +1451,7 @@
       <c r="U22" s="25"/>
       <c r="V22" s="26"/>
     </row>
-    <row r="23" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1469,7 +1475,7 @@
       <c r="U23" s="25"/>
       <c r="V23" s="26"/>
     </row>
-    <row r="24" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1493,7 +1499,7 @@
       <c r="U24" s="25"/>
       <c r="V24" s="26"/>
     </row>
-    <row r="25" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1517,7 +1523,7 @@
       <c r="U25" s="25"/>
       <c r="V25" s="26"/>
     </row>
-    <row r="26" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -1541,7 +1547,7 @@
       <c r="U26" s="30"/>
       <c r="V26" s="26"/>
     </row>
-    <row r="27" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1565,7 +1571,7 @@
       <c r="U27" s="30"/>
       <c r="V27" s="26"/>
     </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -1588,7 +1594,7 @@
       <c r="T28" s="18"/>
       <c r="U28" s="15"/>
     </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -1611,7 +1617,7 @@
       <c r="T29" s="18"/>
       <c r="U29" s="15"/>
     </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -1634,7 +1640,7 @@
       <c r="T30" s="18"/>
       <c r="U30" s="15"/>
     </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -1657,7 +1663,7 @@
       <c r="T31" s="18"/>
       <c r="U31" s="15"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -1680,7 +1686,7 @@
       <c r="T32" s="18"/>
       <c r="U32" s="15"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -1703,7 +1709,7 @@
       <c r="T33" s="18"/>
       <c r="U33" s="15"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -1726,7 +1732,7 @@
       <c r="T34" s="18"/>
       <c r="U34" s="15"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -1749,7 +1755,7 @@
       <c r="T35" s="18"/>
       <c r="U35" s="15"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -1772,7 +1778,7 @@
       <c r="T36" s="18"/>
       <c r="U36" s="15"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -1795,7 +1801,7 @@
       <c r="T37" s="18"/>
       <c r="U37" s="15"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -1818,7 +1824,7 @@
       <c r="T38" s="18"/>
       <c r="U38" s="15"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -1841,7 +1847,7 @@
       <c r="T39" s="18"/>
       <c r="U39" s="15"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -1864,7 +1870,7 @@
       <c r="T40" s="18"/>
       <c r="U40" s="15"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -1887,7 +1893,7 @@
       <c r="T41" s="18"/>
       <c r="U41" s="15"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -1910,7 +1916,7 @@
       <c r="T42" s="18"/>
       <c r="U42" s="15"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -1933,7 +1939,7 @@
       <c r="T43" s="18"/>
       <c r="U43" s="15"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -1956,7 +1962,7 @@
       <c r="T44" s="18"/>
       <c r="U44" s="15"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -1979,7 +1985,7 @@
       <c r="T45" s="18"/>
       <c r="U45" s="15"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -2002,7 +2008,7 @@
       <c r="T46" s="18"/>
       <c r="U46" s="15"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -2025,7 +2031,7 @@
       <c r="T47" s="18"/>
       <c r="U47" s="15"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -2048,7 +2054,7 @@
       <c r="T48" s="18"/>
       <c r="U48" s="15"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -2071,7 +2077,7 @@
       <c r="T49" s="18"/>
       <c r="U49" s="15"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -2094,7 +2100,7 @@
       <c r="T50" s="18"/>
       <c r="U50" s="15"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -2117,7 +2123,7 @@
       <c r="T51" s="18"/>
       <c r="U51" s="15"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -2140,7 +2146,7 @@
       <c r="T52" s="18"/>
       <c r="U52" s="15"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -2163,7 +2169,7 @@
       <c r="T53" s="18"/>
       <c r="U53" s="15"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -2186,7 +2192,7 @@
       <c r="T54" s="18"/>
       <c r="U54" s="15"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -2209,7 +2215,7 @@
       <c r="T55" s="18"/>
       <c r="U55" s="15"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -2232,7 +2238,7 @@
       <c r="T56" s="18"/>
       <c r="U56" s="15"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -2255,7 +2261,7 @@
       <c r="T57" s="18"/>
       <c r="U57" s="15"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -2278,7 +2284,7 @@
       <c r="T58" s="18"/>
       <c r="U58" s="15"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -2301,7 +2307,7 @@
       <c r="T59" s="18"/>
       <c r="U59" s="15"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -2324,7 +2330,7 @@
       <c r="T60" s="18"/>
       <c r="U60" s="15"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -2347,7 +2353,7 @@
       <c r="T61" s="18"/>
       <c r="U61" s="15"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -2370,7 +2376,7 @@
       <c r="T62" s="18"/>
       <c r="U62" s="15"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -2393,7 +2399,7 @@
       <c r="T63" s="18"/>
       <c r="U63" s="15"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -2416,7 +2422,7 @@
       <c r="T64" s="18"/>
       <c r="U64" s="15"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -2439,7 +2445,7 @@
       <c r="T65" s="18"/>
       <c r="U65" s="15"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -2462,7 +2468,7 @@
       <c r="T66" s="18"/>
       <c r="U66" s="15"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -2485,7 +2491,7 @@
       <c r="T67" s="18"/>
       <c r="U67" s="15"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -2508,7 +2514,7 @@
       <c r="T68" s="18"/>
       <c r="U68" s="15"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -2531,7 +2537,7 @@
       <c r="T69" s="18"/>
       <c r="U69" s="15"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
@@ -2554,7 +2560,7 @@
       <c r="T70" s="18"/>
       <c r="U70" s="15"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -2577,7 +2583,7 @@
       <c r="T71" s="18"/>
       <c r="U71" s="15"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -2600,7 +2606,7 @@
       <c r="T72" s="18"/>
       <c r="U72" s="15"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -2623,7 +2629,7 @@
       <c r="T73" s="18"/>
       <c r="U73" s="15"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
@@ -2646,7 +2652,7 @@
       <c r="T74" s="18"/>
       <c r="U74" s="15"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -2669,7 +2675,7 @@
       <c r="T75" s="18"/>
       <c r="U75" s="15"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -2692,7 +2698,7 @@
       <c r="T76" s="18"/>
       <c r="U76" s="15"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -2715,7 +2721,7 @@
       <c r="T77" s="18"/>
       <c r="U77" s="15"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -2738,7 +2744,7 @@
       <c r="T78" s="18"/>
       <c r="U78" s="15"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -2761,7 +2767,7 @@
       <c r="T79" s="18"/>
       <c r="U79" s="15"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -2784,7 +2790,7 @@
       <c r="T80" s="18"/>
       <c r="U80" s="15"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
@@ -2807,7 +2813,7 @@
       <c r="T81" s="18"/>
       <c r="U81" s="15"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="16" x14ac:dyDescent="0.15">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
